--- a/product-definitions/spreadsheet/mean-winds.xlsx
+++ b/product-definitions/spreadsheet/mean-winds.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="77">
   <si>
     <t>Name</t>
   </si>
@@ -98,6 +98,9 @@
     <t>Maximum Wind Speed Observed in Averaging Period</t>
   </si>
   <si>
+    <t>time: maximum</t>
+  </si>
+  <si>
     <t>wind_from_direction</t>
   </si>
   <si>
@@ -131,13 +134,25 @@
     <t>Upward Air Velocity Component (W)</t>
   </si>
   <si>
+    <t>divergence_of_wind</t>
+  </si>
+  <si>
+    <t>Divergence of Horizontal Winds Speed</t>
+  </si>
+  <si>
+    <t>time: standard_deviation</t>
+  </si>
+  <si>
+    <t>divergence_of_wind_from_direction</t>
+  </si>
+  <si>
+    <t>Divergence of Wind from Direction</t>
+  </si>
+  <si>
     <t>divergence_of_eastward_wind</t>
   </si>
   <si>
     <t>Divergence of Eastward Wind Component (Sigma U)</t>
-  </si>
-  <si>
-    <t>time: standard_deviation</t>
   </si>
   <si>
     <t>divergence_of_northward_wind</t>
@@ -248,7 +263,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -267,6 +282,10 @@
     <font/>
     <font>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -290,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -313,25 +332,28 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1602,8 +1624,8 @@
       <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="C23" t="s">
-        <v>23</v>
+      <c r="C23" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="24" ht="12.0" customHeight="1">
@@ -1617,7 +1639,7 @@
     <row r="25" ht="12.0" customHeight="1"/>
     <row r="26" ht="12.0" customHeight="1">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" ht="12.0" customHeight="1">
@@ -1641,7 +1663,7 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" ht="12.0" customHeight="1">
@@ -1649,7 +1671,7 @@
         <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="12.0" customHeight="1">
@@ -1657,7 +1679,7 @@
         <v>16</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" ht="12.0" customHeight="1">
@@ -1703,7 +1725,7 @@
     <row r="37" ht="12.0" customHeight="1"/>
     <row r="38" ht="12.0" customHeight="1">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" ht="12.0" customHeight="1">
@@ -1727,7 +1749,7 @@
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" ht="12.0" customHeight="1">
@@ -1735,7 +1757,7 @@
         <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" ht="12.0" customHeight="1">
@@ -1743,7 +1765,7 @@
         <v>16</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" ht="12.0" customHeight="1">
@@ -1774,8 +1796,8 @@
       <c r="B47" t="s">
         <v>22</v>
       </c>
-      <c r="C47" t="s">
-        <v>23</v>
+      <c r="C47" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="48" ht="12.0" customHeight="1">
@@ -1789,7 +1811,7 @@
     <row r="49" ht="12.0" customHeight="1"/>
     <row r="50" ht="12.0" customHeight="1">
       <c r="A50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" ht="12.0" customHeight="1">
@@ -1821,7 +1843,7 @@
         <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" ht="12.0" customHeight="1">
@@ -1829,7 +1851,7 @@
         <v>16</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" ht="12.0" customHeight="1">
@@ -1875,7 +1897,7 @@
     <row r="61" ht="12.0" customHeight="1"/>
     <row r="62" ht="12.0" customHeight="1">
       <c r="A62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" ht="12.0" customHeight="1">
@@ -1907,7 +1929,7 @@
         <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" ht="12.0" customHeight="1">
@@ -1915,7 +1937,7 @@
         <v>16</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" ht="12.0" customHeight="1">
@@ -1961,7 +1983,7 @@
     <row r="73" ht="12.0" customHeight="1"/>
     <row r="74" ht="12.0" customHeight="1">
       <c r="A74" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" ht="12.0" customHeight="1">
@@ -1993,7 +2015,7 @@
         <v>15</v>
       </c>
       <c r="C78" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79" ht="12.0" customHeight="1">
@@ -2001,7 +2023,7 @@
         <v>16</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80" ht="12.0" customHeight="1">
@@ -2046,8 +2068,8 @@
     </row>
     <row r="85" ht="12.0" customHeight="1"/>
     <row r="86" ht="12.0" customHeight="1">
-      <c r="A86" t="s">
-        <v>39</v>
+      <c r="A86" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="87" ht="12.0" customHeight="1">
@@ -2078,16 +2100,16 @@
       <c r="B90" t="s">
         <v>15</v>
       </c>
-      <c r="D90" t="s">
-        <v>39</v>
+      <c r="C90" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="91" ht="12.0" customHeight="1">
       <c r="B91" t="s">
         <v>16</v>
       </c>
-      <c r="C91" s="8" t="s">
-        <v>40</v>
+      <c r="C91" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="92" ht="12.0" customHeight="1">
@@ -2119,7 +2141,7 @@
         <v>22</v>
       </c>
       <c r="C95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" ht="12.0" customHeight="1">
@@ -2132,8 +2154,8 @@
     </row>
     <row r="97" ht="12.0" customHeight="1"/>
     <row r="98" ht="12.0" customHeight="1">
-      <c r="A98" t="s">
-        <v>42</v>
+      <c r="A98" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="99" ht="12.0" customHeight="1">
@@ -2156,24 +2178,25 @@
       <c r="B101" t="s">
         <v>2</v>
       </c>
-      <c r="C101" t="s">
-        <v>14</v>
+      <c r="C101" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="102" ht="12.0" customHeight="1">
       <c r="B102" t="s">
         <v>15</v>
       </c>
-      <c r="D102" t="s">
-        <v>42</v>
+      <c r="C102" s="8"/>
+      <c r="D102" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="103" ht="12.0" customHeight="1">
       <c r="B103" t="s">
         <v>16</v>
       </c>
-      <c r="C103" s="8" t="s">
-        <v>43</v>
+      <c r="C103" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="104" ht="12.0" customHeight="1">
@@ -2205,7 +2228,7 @@
         <v>22</v>
       </c>
       <c r="C107" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="108" ht="12.0" customHeight="1">
@@ -2217,71 +2240,63 @@
       </c>
     </row>
     <row r="109" ht="12.0" customHeight="1"/>
-    <row r="110" ht="12.0" customHeight="1">
-      <c r="A110" t="s">
-        <v>44</v>
-      </c>
-    </row>
+    <row r="110" ht="12.0" customHeight="1"/>
     <row r="111" ht="12.0" customHeight="1">
-      <c r="B111" t="s">
-        <v>10</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>11</v>
+      <c r="A111" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="112" ht="12.0" customHeight="1">
       <c r="B112" t="s">
-        <v>12</v>
-      </c>
-      <c r="C112" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="113" ht="12.0" customHeight="1">
       <c r="B113" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C113" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114" ht="12.0" customHeight="1">
       <c r="B114" t="s">
-        <v>15</v>
-      </c>
-      <c r="C114" s="8"/>
-      <c r="D114" t="s">
-        <v>44</v>
+        <v>2</v>
+      </c>
+      <c r="C114" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="115" ht="12.0" customHeight="1">
       <c r="B115" t="s">
-        <v>16</v>
-      </c>
-      <c r="C115" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="116" ht="12.0" customHeight="1">
       <c r="B116" t="s">
-        <v>18</v>
-      </c>
-      <c r="C116" s="6">
-        <v>-1.0E20</v>
+        <v>16</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="117" ht="12.0" customHeight="1">
       <c r="B117" t="s">
-        <v>19</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="C117" s="6">
+        <v>-1.0E20</v>
       </c>
     </row>
     <row r="118" ht="12.0" customHeight="1">
       <c r="B118" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>20</v>
@@ -2289,85 +2304,85 @@
     </row>
     <row r="119" ht="12.0" customHeight="1">
       <c r="B119" t="s">
-        <v>22</v>
-      </c>
-      <c r="C119" t="s">
-        <v>41</v>
+        <v>21</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="120" ht="12.0" customHeight="1">
       <c r="B120" t="s">
+        <v>22</v>
+      </c>
+      <c r="C120" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="121" ht="12.0" customHeight="1">
+      <c r="B121" t="s">
         <v>24</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C121" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="121" ht="12.0" customHeight="1"/>
-    <row r="122" ht="12.0" customHeight="1">
-      <c r="A122" t="s">
-        <v>46</v>
-      </c>
-    </row>
+    <row r="122" ht="12.0" customHeight="1"/>
     <row r="123" ht="12.0" customHeight="1">
-      <c r="B123" t="s">
-        <v>10</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>11</v>
+      <c r="A123" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="124" ht="12.0" customHeight="1">
       <c r="B124" t="s">
-        <v>12</v>
-      </c>
-      <c r="C124" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="125" ht="12.0" customHeight="1">
       <c r="B125" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C125" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126" ht="12.0" customHeight="1">
       <c r="B126" t="s">
-        <v>15</v>
-      </c>
-      <c r="D126" t="s">
-        <v>46</v>
+        <v>2</v>
+      </c>
+      <c r="C126" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="127" ht="12.0" customHeight="1">
       <c r="B127" t="s">
-        <v>16</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>48</v>
+        <v>15</v>
+      </c>
+      <c r="D127" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="128" ht="12.0" customHeight="1">
       <c r="B128" t="s">
-        <v>18</v>
-      </c>
-      <c r="C128" s="6">
-        <v>-1.0E20</v>
+        <v>16</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="129" ht="12.0" customHeight="1">
       <c r="B129" t="s">
-        <v>19</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="C129" s="6">
+        <v>-1.0E20</v>
       </c>
     </row>
     <row r="130" ht="12.0" customHeight="1">
       <c r="B130" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>20</v>
@@ -2375,85 +2390,86 @@
     </row>
     <row r="131" ht="12.0" customHeight="1">
       <c r="B131" t="s">
-        <v>22</v>
-      </c>
-      <c r="C131" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="132" ht="12.0" customHeight="1">
       <c r="B132" t="s">
+        <v>22</v>
+      </c>
+      <c r="C132" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="133" ht="12.0" customHeight="1">
+      <c r="B133" t="s">
         <v>24</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C133" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="133" ht="12.0" customHeight="1"/>
-    <row r="134" ht="12.0" customHeight="1">
-      <c r="A134" s="5" t="s">
+    <row r="134" ht="12.0" customHeight="1"/>
+    <row r="135" ht="12.0" customHeight="1">
+      <c r="A135" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="135" ht="12.0" customHeight="1">
-      <c r="B135" t="s">
-        <v>10</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="136" ht="12.0" customHeight="1">
       <c r="B136" t="s">
-        <v>12</v>
-      </c>
-      <c r="C136" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="137" ht="12.0" customHeight="1">
       <c r="B137" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C137" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="138" ht="12.0" customHeight="1">
       <c r="B138" t="s">
-        <v>15</v>
-      </c>
-      <c r="D138" s="5" t="s">
-        <v>49</v>
+        <v>2</v>
+      </c>
+      <c r="C138" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="139" ht="12.0" customHeight="1">
       <c r="B139" t="s">
-        <v>16</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>50</v>
+        <v>15</v>
+      </c>
+      <c r="C139" s="9"/>
+      <c r="D139" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="140" ht="12.0" customHeight="1">
       <c r="B140" t="s">
-        <v>18</v>
-      </c>
-      <c r="C140" s="6">
-        <v>-1.0E20</v>
+        <v>16</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="141" ht="12.0" customHeight="1">
       <c r="B141" t="s">
-        <v>19</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="C141" s="6">
+        <v>-1.0E20</v>
       </c>
     </row>
     <row r="142" ht="12.0" customHeight="1">
       <c r="B142" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>20</v>
@@ -2461,413 +2477,568 @@
     </row>
     <row r="143" ht="12.0" customHeight="1">
       <c r="B143" t="s">
-        <v>22</v>
-      </c>
-      <c r="C143" t="s">
-        <v>41</v>
+        <v>21</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="144" ht="12.0" customHeight="1">
       <c r="B144" t="s">
+        <v>22</v>
+      </c>
+      <c r="C144" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="145" ht="12.0" customHeight="1">
+      <c r="B145" t="s">
         <v>24</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C145" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="145" ht="12.0" customHeight="1"/>
-    <row r="146" ht="12.0" customHeight="1">
-      <c r="A146" s="5" t="s">
+    <row r="146" ht="12.0" customHeight="1"/>
+    <row r="147" ht="12.0" customHeight="1">
+      <c r="A147" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="147" ht="12.0" customHeight="1">
-      <c r="B147" t="s">
-        <v>10</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="148" ht="12.0" customHeight="1">
       <c r="B148" t="s">
-        <v>12</v>
-      </c>
-      <c r="C148" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="149" ht="12.0" customHeight="1">
       <c r="B149" t="s">
-        <v>2</v>
-      </c>
-      <c r="C149" s="9">
-        <v>1.0</v>
+        <v>12</v>
+      </c>
+      <c r="C149" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="150" ht="12.0" customHeight="1">
       <c r="B150" t="s">
-        <v>15</v>
-      </c>
-      <c r="C150" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="C150" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="151" ht="12.0" customHeight="1">
       <c r="B151" t="s">
+        <v>15</v>
+      </c>
+      <c r="D151" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="152" ht="12.0" customHeight="1">
+      <c r="B152" t="s">
         <v>16</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C152" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="152" ht="12.0" customHeight="1">
-      <c r="B152" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C152" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D152" s="10"/>
-      <c r="E152" s="10"/>
-      <c r="F152" s="10"/>
-      <c r="G152" s="10"/>
-    </row>
     <row r="153" ht="12.0" customHeight="1">
-      <c r="B153" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C153" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D153" s="14"/>
-      <c r="E153" s="14"/>
-      <c r="F153" s="14"/>
-      <c r="G153" s="10"/>
-    </row>
-    <row r="154" ht="12.0" customHeight="1"/>
+      <c r="B153" t="s">
+        <v>18</v>
+      </c>
+      <c r="C153" s="6">
+        <v>-1.0E20</v>
+      </c>
+    </row>
+    <row r="154" ht="12.0" customHeight="1">
+      <c r="B154" t="s">
+        <v>19</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="155" ht="12.0" customHeight="1">
-      <c r="A155" t="s">
-        <v>58</v>
+      <c r="B155" t="s">
+        <v>21</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="156" ht="12.0" customHeight="1">
       <c r="B156" t="s">
-        <v>10</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>52</v>
+        <v>22</v>
+      </c>
+      <c r="C156" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="157" ht="12.0" customHeight="1">
       <c r="B157" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C157" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="158" ht="12.0" customHeight="1">
-      <c r="B158" t="s">
-        <v>2</v>
-      </c>
-      <c r="C158" s="9">
-        <v>1.0</v>
-      </c>
-    </row>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="158" ht="12.0" customHeight="1"/>
     <row r="159" ht="12.0" customHeight="1">
-      <c r="B159" t="s">
-        <v>15</v>
-      </c>
-      <c r="C159" s="9"/>
+      <c r="A159" s="5" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="160" ht="12.0" customHeight="1">
       <c r="B160" t="s">
+        <v>10</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" ht="12.0" customHeight="1">
+      <c r="B161" t="s">
+        <v>12</v>
+      </c>
+      <c r="C161" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" ht="12.0" customHeight="1">
+      <c r="B162" t="s">
+        <v>2</v>
+      </c>
+      <c r="C162" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="163" ht="12.0" customHeight="1">
+      <c r="B163" t="s">
+        <v>15</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="164" ht="12.0" customHeight="1">
+      <c r="B164" t="s">
         <v>16</v>
       </c>
-      <c r="C160" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="161" ht="12.0" customHeight="1">
-      <c r="B161" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C161" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="162" ht="12.0" customHeight="1">
-      <c r="B162" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C162" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="163" ht="12.0" customHeight="1"/>
-    <row r="164" ht="12.0" customHeight="1">
-      <c r="A164" t="s">
-        <v>62</v>
+      <c r="C164" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="165" ht="12.0" customHeight="1">
       <c r="B165" t="s">
-        <v>10</v>
-      </c>
-      <c r="C165" s="5" t="s">
-        <v>52</v>
+        <v>18</v>
+      </c>
+      <c r="C165" s="6">
+        <v>-1.0E20</v>
       </c>
     </row>
     <row r="166" ht="12.0" customHeight="1">
       <c r="B166" t="s">
-        <v>12</v>
-      </c>
-      <c r="C166" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="167" ht="12.0" customHeight="1">
       <c r="B167" t="s">
-        <v>2</v>
-      </c>
-      <c r="C167" s="9">
-        <v>1.0</v>
+        <v>21</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="168" ht="12.0" customHeight="1">
       <c r="B168" t="s">
-        <v>15</v>
-      </c>
-      <c r="C168" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="C168" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="169" ht="12.0" customHeight="1">
       <c r="B169" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C169" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="170" ht="12.0" customHeight="1">
-      <c r="B170" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C170" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="170" ht="12.0" customHeight="1"/>
     <row r="171" ht="12.0" customHeight="1">
-      <c r="B171" s="12" t="s">
+      <c r="A171" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C171" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="172" ht="12.0" customHeight="1"/>
+    </row>
+    <row r="172" ht="12.0" customHeight="1">
+      <c r="B172" t="s">
+        <v>10</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="173" ht="12.0" customHeight="1">
-      <c r="A173" t="s">
-        <v>65</v>
+      <c r="B173" t="s">
+        <v>12</v>
+      </c>
+      <c r="C173" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="174" ht="12.0" customHeight="1">
       <c r="B174" t="s">
-        <v>10</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="C174" s="10">
+        <v>1.0</v>
       </c>
     </row>
     <row r="175" ht="12.0" customHeight="1">
       <c r="B175" t="s">
-        <v>12</v>
-      </c>
-      <c r="C175" t="s">
-        <v>13</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C175" s="10"/>
     </row>
     <row r="176" ht="12.0" customHeight="1">
       <c r="B176" t="s">
-        <v>2</v>
-      </c>
-      <c r="C176" s="9">
-        <v>1.0</v>
+        <v>16</v>
+      </c>
+      <c r="C176" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="177" ht="12.0" customHeight="1">
-      <c r="B177" t="s">
-        <v>15</v>
-      </c>
-      <c r="C177" s="9"/>
+      <c r="B177" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C177" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D177" s="11"/>
+      <c r="E177" s="11"/>
+      <c r="F177" s="11"/>
+      <c r="G177" s="11"/>
     </row>
     <row r="178" ht="12.0" customHeight="1">
-      <c r="B178" t="s">
-        <v>16</v>
-      </c>
-      <c r="C178" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="179" ht="12.0" customHeight="1">
-      <c r="B179" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C179" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
+      <c r="B178" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C178" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D178" s="15"/>
+      <c r="E178" s="15"/>
+      <c r="F178" s="15"/>
+      <c r="G178" s="11"/>
+    </row>
+    <row r="179" ht="12.0" customHeight="1"/>
     <row r="180" ht="12.0" customHeight="1">
-      <c r="B180" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C180" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="181" ht="12.0" customHeight="1"/>
+      <c r="A180" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="181" ht="12.0" customHeight="1">
+      <c r="B181" t="s">
+        <v>10</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="182" ht="12.0" customHeight="1">
-      <c r="A182" t="s">
-        <v>68</v>
+      <c r="B182" t="s">
+        <v>12</v>
+      </c>
+      <c r="C182" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="183" ht="12.0" customHeight="1">
       <c r="B183" t="s">
-        <v>10</v>
-      </c>
-      <c r="C183" s="5" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="C183" s="10">
+        <v>1.0</v>
       </c>
     </row>
     <row r="184" ht="12.0" customHeight="1">
       <c r="B184" t="s">
-        <v>12</v>
-      </c>
-      <c r="C184" t="s">
-        <v>13</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C184" s="10"/>
     </row>
     <row r="185" ht="12.0" customHeight="1">
       <c r="B185" t="s">
-        <v>2</v>
-      </c>
-      <c r="C185" s="9">
-        <v>1.0</v>
+        <v>16</v>
+      </c>
+      <c r="C185" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="186" ht="12.0" customHeight="1">
-      <c r="B186" t="s">
-        <v>15</v>
-      </c>
-      <c r="C186" s="9"/>
+      <c r="B186" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C186" s="12" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="187" ht="12.0" customHeight="1">
-      <c r="B187" t="s">
-        <v>16</v>
-      </c>
-      <c r="C187" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="188" ht="12.0" customHeight="1">
-      <c r="B188" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C188" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
+      <c r="B187" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C187" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="188" ht="12.0" customHeight="1"/>
     <row r="189" ht="12.0" customHeight="1">
-      <c r="B189" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C189" s="13" t="s">
+      <c r="A189" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="190" ht="12.0" customHeight="1"/>
+    <row r="190" ht="12.0" customHeight="1">
+      <c r="B190" t="s">
+        <v>10</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="191" ht="12.0" customHeight="1">
-      <c r="A191" s="5" t="s">
-        <v>70</v>
+      <c r="B191" t="s">
+        <v>12</v>
+      </c>
+      <c r="C191" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="192" ht="12.0" customHeight="1">
       <c r="B192" t="s">
-        <v>10</v>
-      </c>
-      <c r="C192" s="5" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="C192" s="10">
+        <v>1.0</v>
       </c>
     </row>
     <row r="193" ht="12.0" customHeight="1">
       <c r="B193" t="s">
-        <v>12</v>
-      </c>
-      <c r="C193" t="s">
-        <v>13</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C193" s="10"/>
     </row>
     <row r="194" ht="12.0" customHeight="1">
       <c r="B194" t="s">
+        <v>16</v>
+      </c>
+      <c r="C194" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="195" ht="12.0" customHeight="1">
+      <c r="B195" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C195" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="196" ht="12.0" customHeight="1">
+      <c r="B196" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C196" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="197" ht="12.0" customHeight="1"/>
+    <row r="198" ht="12.0" customHeight="1">
+      <c r="A198" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="199" ht="12.0" customHeight="1">
+      <c r="B199" t="s">
+        <v>10</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="200" ht="12.0" customHeight="1">
+      <c r="B200" t="s">
+        <v>12</v>
+      </c>
+      <c r="C200" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201" ht="12.0" customHeight="1">
+      <c r="B201" t="s">
         <v>2</v>
       </c>
-      <c r="C194" s="9">
+      <c r="C201" s="10">
         <v>1.0</v>
       </c>
     </row>
-    <row r="195" ht="12.0" customHeight="1">
-      <c r="B195" t="s">
+    <row r="202" ht="12.0" customHeight="1">
+      <c r="B202" t="s">
         <v>15</v>
       </c>
-      <c r="C195" s="9"/>
-    </row>
-    <row r="196" ht="12.0" customHeight="1">
-      <c r="B196" t="s">
+      <c r="C202" s="10"/>
+    </row>
+    <row r="203" ht="12.0" customHeight="1">
+      <c r="B203" t="s">
         <v>16</v>
       </c>
-      <c r="C196" s="5" t="s">
+      <c r="C203" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="197" ht="12.0" customHeight="1">
-      <c r="B197" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C197" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="198" ht="12.0" customHeight="1">
-      <c r="B198" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C198" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="199" ht="12.0" customHeight="1"/>
-    <row r="200" ht="12.0" customHeight="1"/>
-    <row r="201" ht="12.0" customHeight="1"/>
-    <row r="202" ht="12.0" customHeight="1"/>
-    <row r="203" ht="12.0" customHeight="1"/>
-    <row r="204" ht="12.0" customHeight="1"/>
-    <row r="205" ht="12.0" customHeight="1"/>
+    <row r="204" ht="12.0" customHeight="1">
+      <c r="B204" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C204" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="205" ht="12.0" customHeight="1">
+      <c r="B205" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C205" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
     <row r="206" ht="12.0" customHeight="1"/>
-    <row r="207" ht="12.0" customHeight="1"/>
-    <row r="208" ht="12.0" customHeight="1"/>
-    <row r="209" ht="12.0" customHeight="1"/>
-    <row r="210" ht="12.0" customHeight="1"/>
-    <row r="211" ht="12.0" customHeight="1"/>
-    <row r="212" ht="12.0" customHeight="1"/>
-    <row r="213" ht="12.0" customHeight="1"/>
-    <row r="214" ht="12.0" customHeight="1"/>
+    <row r="207" ht="12.0" customHeight="1">
+      <c r="A207" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="208" ht="12.0" customHeight="1">
+      <c r="B208" t="s">
+        <v>10</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="209" ht="12.0" customHeight="1">
+      <c r="B209" t="s">
+        <v>12</v>
+      </c>
+      <c r="C209" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="210" ht="12.0" customHeight="1">
+      <c r="B210" t="s">
+        <v>2</v>
+      </c>
+      <c r="C210" s="10">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="211" ht="12.0" customHeight="1">
+      <c r="B211" t="s">
+        <v>15</v>
+      </c>
+      <c r="C211" s="10"/>
+    </row>
+    <row r="212" ht="12.0" customHeight="1">
+      <c r="B212" t="s">
+        <v>16</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="213" ht="12.0" customHeight="1">
+      <c r="B213" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C213" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="214" ht="12.0" customHeight="1">
+      <c r="B214" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C214" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
     <row r="215" ht="12.0" customHeight="1"/>
-    <row r="216" ht="12.0" customHeight="1"/>
-    <row r="217" ht="12.0" customHeight="1"/>
-    <row r="218" ht="12.0" customHeight="1"/>
-    <row r="219" ht="12.0" customHeight="1"/>
-    <row r="220" ht="12.0" customHeight="1"/>
-    <row r="221" ht="12.0" customHeight="1"/>
-    <row r="222" ht="12.0" customHeight="1"/>
-    <row r="223" ht="12.0" customHeight="1"/>
+    <row r="216" ht="12.0" customHeight="1">
+      <c r="A216" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="217" ht="12.0" customHeight="1">
+      <c r="B217" t="s">
+        <v>10</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="218" ht="12.0" customHeight="1">
+      <c r="B218" t="s">
+        <v>12</v>
+      </c>
+      <c r="C218" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219" ht="12.0" customHeight="1">
+      <c r="B219" t="s">
+        <v>2</v>
+      </c>
+      <c r="C219" s="10">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="220" ht="12.0" customHeight="1">
+      <c r="B220" t="s">
+        <v>15</v>
+      </c>
+      <c r="C220" s="10"/>
+    </row>
+    <row r="221" ht="12.0" customHeight="1">
+      <c r="B221" t="s">
+        <v>16</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="222" ht="12.0" customHeight="1">
+      <c r="B222" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C222" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="223" ht="12.0" customHeight="1">
+      <c r="B223" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C223" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
     <row r="224" ht="12.0" customHeight="1"/>
     <row r="225" ht="12.0" customHeight="1"/>
     <row r="226" ht="12.0" customHeight="1"/>
@@ -3617,6 +3788,31 @@
     <row r="970" ht="12.0" customHeight="1"/>
     <row r="971" ht="12.0" customHeight="1"/>
     <row r="972" ht="12.0" customHeight="1"/>
+    <row r="973" ht="12.0" customHeight="1"/>
+    <row r="974" ht="12.0" customHeight="1"/>
+    <row r="975" ht="12.0" customHeight="1"/>
+    <row r="976" ht="12.0" customHeight="1"/>
+    <row r="977" ht="12.0" customHeight="1"/>
+    <row r="978" ht="12.0" customHeight="1"/>
+    <row r="979" ht="12.0" customHeight="1"/>
+    <row r="980" ht="12.0" customHeight="1"/>
+    <row r="981" ht="12.0" customHeight="1"/>
+    <row r="982" ht="12.0" customHeight="1"/>
+    <row r="983" ht="12.0" customHeight="1"/>
+    <row r="984" ht="12.0" customHeight="1"/>
+    <row r="985" ht="12.0" customHeight="1"/>
+    <row r="986" ht="12.0" customHeight="1"/>
+    <row r="987" ht="12.0" customHeight="1"/>
+    <row r="988" ht="12.0" customHeight="1"/>
+    <row r="989" ht="12.0" customHeight="1"/>
+    <row r="990" ht="12.0" customHeight="1"/>
+    <row r="991" ht="12.0" customHeight="1"/>
+    <row r="992" ht="12.0" customHeight="1"/>
+    <row r="993" ht="12.0" customHeight="1"/>
+    <row r="994" ht="12.0" customHeight="1"/>
+    <row r="995" ht="12.0" customHeight="1"/>
+    <row r="996" ht="12.0" customHeight="1"/>
+    <row r="997" ht="12.0" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
